--- a/RoadTo100H.xlsx
+++ b/RoadTo100H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ABBA19-C4CC-4A20-8432-0761914E49B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C584CF-46D2-4A62-86F5-F35838CD5E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="942" xr2:uid="{B6BD9E57-A471-4DBF-AC74-9C3E18C271B1}"/>
   </bookViews>
@@ -534,7 +534,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2197,7 +2197,7 @@
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2364,7 +2364,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13815,7 +13815,7 @@
   <dimension ref="B1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13898,13 +13898,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5">
         <v>44894</v>
       </c>
       <c r="F3" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -14300,12 +14300,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14441,15 +14438,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6478231-01EA-4B84-8AAD-A2AFD113185C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92BD6FC7-60B5-47A7-B02A-F44FFD323407}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14474,11 +14476,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92BD6FC7-60B5-47A7-B02A-F44FFD323407}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6478231-01EA-4B84-8AAD-A2AFD113185C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>